--- a/Fase2/UML/Especificação de Use Cases/Ver Serviços Agendados.xlsx
+++ b/Fase2/UML/Especificação de Use Cases/Ver Serviços Agendados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Google Drive\Universidade\3º + 2º Ano_\2º Semestre\LI4\Especificação de Use Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\OneDrive\Documents\GitHub\li4-17-18\Fase2\UML\Especificação de Use Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26B084F-9569-4E6C-AA09-24C83988A1ED}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABEDA40-B706-474A-B781-4AFE76ECB9C9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12795" xr2:uid="{3A166A21-09FC-4BA1-966C-67FDE70D2647}"/>
   </bookViews>
@@ -106,9 +106,6 @@
     <t xml:space="preserve">Apresenta Lista de Serviços agendados </t>
   </si>
   <si>
-    <t>Pede para ver Serviços agendados</t>
-  </si>
-  <si>
     <t>Escolhe a data que quer consultar</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pintor devidamente autenticado </t>
+  </si>
+  <si>
+    <t>Indica que pretende ver Serviços agendados</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M19:M20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +567,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -628,7 +628,7 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
